--- a/data/trans_dic/CONS_DIA-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIA-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>17,73%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,39; 23,74</t>
+          <t>12,44; 19,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,14; 20,63</t>
+          <t>10,96; 18,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,89; 13,35</t>
+          <t>14,03; 20,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,17; 23,44</t>
+          <t>10,79; 16,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,15; 22,54</t>
+          <t>16,17; 21,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,42</t>
+          <t>15,29; 21,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,2; 22,67</t>
+          <t>12,25; 16,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,61; 20,92</t>
+          <t>14,9; 19,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,23; 12,26</t>
+          <t>15,64; 20,1</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,94%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 10,22</t>
+          <t>6,64; 9,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 8,76</t>
+          <t>3,31; 7,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,51; 8,45</t>
+          <t>5,49; 7,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 7,69</t>
+          <t>3,22; 4,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 4,78</t>
+          <t>2,0; 4,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 4,77</t>
+          <t>4,29; 6,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 8,65</t>
+          <t>5,26; 6,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,39</t>
+          <t>3,23; 5,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 6,43</t>
+          <t>5,25; 6,87</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,79</t>
+          <t>1,72; 3,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,79</t>
+          <t>4,08; 8,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,26</t>
+          <t>3,27; 6,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,54</t>
+          <t>0,97; 2,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,57</t>
+          <t>1,71; 4,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,22</t>
+          <t>1,13; 3,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,5</t>
+          <t>1,42; 2,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,12</t>
+          <t>3,33; 5,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,39</t>
+          <t>2,39; 4,19</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>7,11%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,52; 11,68</t>
+          <t>6,78; 8,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 9,68</t>
+          <t>4,62; 8,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,36; 7,75</t>
+          <t>6,69; 8,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 9,49</t>
+          <t>4,29; 5,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 7,96</t>
+          <t>4,25; 6,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 5,29</t>
+          <t>5,85; 7,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 10,3</t>
+          <t>5,7; 6,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,38; 8,54</t>
+          <t>5,0; 7,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 6,29</t>
+          <t>6,5; 7,73</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para la diabetes</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13753</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33427</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>36633</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17138</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>74013</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>50163</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>30891</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>107440</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>86796</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10952; 17057</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25028; 42992</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30278; 44303</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13781; 20720</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>63897; 86154</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>41842; 59767</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>26443; 35698</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>92879; 122343</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>76554; 98400</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35344</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>83940</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>56323</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17207</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>44567</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>46467</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>52551</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>128506</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>102790</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>30125; 40880</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>46648; 109022</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>47332; 67164</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13886; 21164</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>27736; 59103</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>37264; 57107</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>46587; 59057</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>90325; 161618</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>90851; 118893</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3942</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27202</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17094</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3095</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11846</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7657</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7037</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>39048</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24751</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2608; 5868</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18777; 37383</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12391; 23603</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1887; 5226</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7580; 18002</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4716; 12743</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4920; 9580</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30061; 50882</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18980; 33319</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>53039</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>144569</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>110050</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>37441</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>130426</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>104287</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>90480</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>274995</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>214337</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>46978; 59467</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>96859; 174803</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>97378; 123871</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>32341; 43122</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>94437; 154293</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>91199; 118523</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>82454; 99032</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>215971; 319283</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>196036; 233038</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_DIA-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIA-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes</t>
+          <t>Consumo de medicamentos para la diabetes (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes</t>
+          <t>Consumo de medicamentos para la diabetes (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_DIA-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIA-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,44; 19,37</t>
+          <t>12,62; 19,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,96; 18,83</t>
+          <t>10,86; 19,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 16,22</t>
+          <t>9,99; 15,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,17; 21,81</t>
+          <t>15,99; 21,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,25; 16,54</t>
+          <t>11,79; 15,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,9; 19,63</t>
+          <t>14,9; 19,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,64; 9,01</t>
+          <t>6,41; 8,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,74</t>
+          <t>3,46; 7,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 4,9</t>
+          <t>3,07; 4,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,26</t>
+          <t>2,04; 4,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 6,67</t>
+          <t>5,01; 6,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,78</t>
+          <t>3,15; 5,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,87</t>
+          <t>1,64; 4,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,13</t>
+          <t>4,23; 8,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,69</t>
+          <t>0,85; 2,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,06</t>
+          <t>1,67; 4,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,77</t>
+          <t>1,35; 2,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,63</t>
+          <t>3,26; 5,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 8,58</t>
+          <t>6,46; 8,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,33</t>
+          <t>4,56; 8,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 5,72</t>
+          <t>3,85; 5,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,25; 6,94</t>
+          <t>4,43; 6,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 6,84</t>
+          <t>5,24; 6,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 7,39</t>
+          <t>5,13; 7,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13753</t>
+          <t>12881</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17138</t>
+          <t>14907</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30891</t>
+          <t>27788</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10952; 17057</t>
+          <t>10413; 15820</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25028; 42992</t>
+          <t>24786; 43544</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13781; 20720</t>
+          <t>12135; 18318</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63897; 86154</t>
+          <t>63171; 86148</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26443; 35698</t>
+          <t>24059; 32273</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>92879; 122343</t>
+          <t>92868; 121518</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35344</t>
+          <t>34332</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17207</t>
+          <t>17018</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>52551</t>
+          <t>51350</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30125; 40880</t>
+          <t>29575; 39476</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46648; 109022</t>
+          <t>48702; 110067</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13886; 21164</t>
+          <t>13637; 20673</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27736; 59103</t>
+          <t>28294; 58127</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46587; 59057</t>
+          <t>45411; 57677</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>90325; 161618</t>
+          <t>88094; 160102</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3942</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>7867</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2608; 5868</t>
+          <t>2879; 7052</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18777; 37383</t>
+          <t>19427; 39477</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1887; 5226</t>
+          <t>1941; 5629</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7580; 18002</t>
+          <t>7405; 18326</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4920; 9580</t>
+          <t>5432; 10989</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>30061; 50882</t>
+          <t>29405; 50756</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>53039</t>
+          <t>51791</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>37441</t>
+          <t>35214</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90480</t>
+          <t>87004</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>46978; 59467</t>
+          <t>46501; 59136</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>96859; 174803</t>
+          <t>95588; 174254</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32341; 43122</t>
+          <t>30593; 40170</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>94437; 154293</t>
+          <t>98522; 153891</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>82454; 99032</t>
+          <t>79322; 95387</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>215971; 319283</t>
+          <t>221712; 315558</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_DIA-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIA-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>14,54%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>15,61%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,64%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>16,98%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>18,53%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18,33%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>12,27%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>18,73%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>18,33%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>17,05%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17,73%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>13,62%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>17,23%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>17,73%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>10,84; 18,79</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 20,53</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>12,62; 19,17</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>10,86; 19,07</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>14,03; 20,53</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>15,88; 21,6</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15,29; 21,84</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>9,99; 15,08</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>15,99; 21,8</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>15,29; 21,84</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>14,88; 19,29</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15,64; 20,1</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>11,79; 15,82</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>14,9; 19,49</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>15,64; 20,1</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>7,44%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,96%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,53%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>3,83%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,22%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,35%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>5,67%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>4,6%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5,94%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>5,81; 8,48</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5,49; 7,79</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>6,41; 8,55</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3,46; 7,81</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,49; 7,79</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>3,1; 4,8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 6,58</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>3,07; 4,65</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 4,19</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,29; 6,58</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>4,77; 6,48</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5,25; 6,87</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>5,01; 6,37</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3,15; 5,73</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>5,25; 6,87</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,74%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>2,61%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,51%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,72%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,44%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,67%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,84%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>1,95%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,32%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>4,19; 8,14</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 6,23</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,64; 4,02</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4,23; 8,59</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3,27; 6,23</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,77; 4,21</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 3,06</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,85; 2,47</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 4,13</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 3,06</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>3,25; 5,53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 4,19</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1,35; 2,72</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3,26; 5,62</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 4,19</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>7,2%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,89%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,56%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,51%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>4,44%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,86%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,69%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>5,75%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,36%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>7,11%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>6,62; 8,95</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6,69; 8,5</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>6,46; 8,22</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4,56; 8,31</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,69; 8,5</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>5,74; 7,44</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 7,6</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3,85; 5,06</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>4,43; 6,92</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,85; 7,6</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>6,42; 7,72</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6,5; 7,73</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>5,24; 6,3</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>5,13; 7,3</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>6,5; 7,73</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>78</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>97</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>175</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>247</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>37145</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>36633</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>12881</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>33427</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>36633</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>80146</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>50163</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>14907</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>74013</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>50163</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>117292</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>86796</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>27788</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>107440</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>86796</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>27695; 47984</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30278; 44303</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>10413; 15820</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>24786; 43544</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>30278; 44303</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>68683; 93426</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>41842; 59767</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>12135; 18318</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>63171; 86148</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>41842; 59767</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>102361; 132704</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>76554; 98400</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>24059; 32273</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>92868; 121518</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>76554; 98400</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>206</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>103</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>309</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>255</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>91468</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>56323</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>34332</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>83940</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>56323</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>49527</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>46467</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>17018</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>44567</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>46467</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>140994</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>102790</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>51350</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>128506</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>102790</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>74780; 109146</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47332; 67164</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>29575; 39476</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>48702; 110067</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>47332; 67164</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>39414; 61029</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>37264; 57107</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>13637; 20673</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>28294; 58127</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>37264; 57107</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>121951; 165811</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>90851; 118893</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>45411; 57677</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>88094; 160102</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>90851; 118893</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>42</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>59</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>29285</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17094</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>4578</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>27202</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>17094</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>13497</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7657</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3289</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>11846</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7657</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>42782</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24751</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>7867</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>39048</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>24751</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>21349; 41510</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12391; 23603</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>2879; 7052</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>19427; 39477</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>12391; 23603</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>8760; 20886</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4716; 12743</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>1941; 5629</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7405; 18326</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4716; 12743</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>32647; 55596</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18980; 33319</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>5432; 10989</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>29405; 50756</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>18980; 33319</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>308</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>218</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>526</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>442</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>561</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>157898</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>110050</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>51791</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>144569</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>110050</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>143170</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>104287</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>35214</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>130426</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>104287</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>301068</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>214337</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>87004</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>274995</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>214337</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>135978; 183690</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>97378; 123871</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>46501; 59136</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>95588; 174254</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>97378; 123871</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>126235; 163693</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>91199; 118523</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>30593; 40170</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>98522; 153891</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>91199; 118523</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>273027; 328300</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>196036; 233038</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>79322; 95387</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>221712; 315558</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>196036; 233038</t>
         </is>
       </c>
     </row>
